--- a/Kode/Server2/Logs/lora_node2/2020-05-22.xlsx
+++ b/Kode/Server2/Logs/lora_node2/2020-05-22.xlsx
@@ -3223,7 +3223,7 @@
         <v>0.045</v>
       </c>
       <c r="F143" t="n">
-        <v>0.00010188</v>
+        <v>0.10188</v>
       </c>
     </row>
     <row r="144">
@@ -3243,7 +3243,7 @@
         <v>0.06</v>
       </c>
       <c r="F144" t="n">
-        <v>0.000138</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="145">
@@ -3263,7 +3263,7 @@
         <v>0.075</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0001704</v>
+        <v>0.1704</v>
       </c>
     </row>
     <row r="146">
@@ -3283,7 +3283,7 @@
         <v>0.09</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0002052</v>
+        <v>0.2052</v>
       </c>
     </row>
     <row r="147">
@@ -3303,7 +3303,7 @@
         <v>0.09</v>
       </c>
       <c r="F147" t="n">
-        <v>0.00020484</v>
+        <v>0.20484</v>
       </c>
     </row>
     <row r="148">
@@ -3323,7 +3323,7 @@
         <v>0.165</v>
       </c>
       <c r="F148" t="n">
-        <v>0.00036366</v>
+        <v>0.36366</v>
       </c>
     </row>
     <row r="149">
@@ -3343,7 +3343,7 @@
         <v>0.165</v>
       </c>
       <c r="F149" t="n">
-        <v>0.0003729</v>
+        <v>0.3729</v>
       </c>
     </row>
     <row r="150">
@@ -3363,7 +3363,7 @@
         <v>0.18</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0004032</v>
+        <v>0.4032</v>
       </c>
     </row>
     <row r="151">
@@ -3383,7 +3383,7 @@
         <v>0.21</v>
       </c>
       <c r="F151" t="n">
-        <v>0.00047292</v>
+        <v>0.47292</v>
       </c>
     </row>
     <row r="152">
@@ -3403,7 +3403,7 @@
         <v>0.24</v>
       </c>
       <c r="F152" t="n">
-        <v>0.000528</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="153">
@@ -3423,7 +3423,7 @@
         <v>0.255</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0005773200000000001</v>
+        <v>0.5773200000000001</v>
       </c>
     </row>
     <row r="154">
@@ -3443,7 +3443,7 @@
         <v>0.285</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0006441</v>
+        <v>0.6441</v>
       </c>
     </row>
     <row r="155">
@@ -3463,7 +3463,7 @@
         <v>0.36</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0008164800000000001</v>
+        <v>0.8164800000000001</v>
       </c>
     </row>
     <row r="156">
@@ -3483,7 +3483,7 @@
         <v>0.39</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0008502000000000001</v>
+        <v>0.8502000000000001</v>
       </c>
     </row>
     <row r="157">
@@ -3503,7 +3503,7 @@
         <v>0.405</v>
       </c>
       <c r="F157" t="n">
-        <v>0.00091206</v>
+        <v>0.91206</v>
       </c>
     </row>
     <row r="158">
@@ -3523,7 +3523,7 @@
         <v>0.45</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0009936000000000001</v>
+        <v>0.9936</v>
       </c>
     </row>
     <row r="159">
@@ -3543,7 +3543,7 @@
         <v>0.465</v>
       </c>
       <c r="F159" t="n">
-        <v>0.00103044</v>
+        <v>1.03044</v>
       </c>
     </row>
     <row r="160">
@@ -3563,7 +3563,7 @@
         <v>0.48</v>
       </c>
       <c r="F160" t="n">
-        <v>0.00106176</v>
+        <v>1.06176</v>
       </c>
     </row>
     <row r="161">
@@ -3583,7 +3583,7 @@
         <v>0.525</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0011739</v>
+        <v>1.1739</v>
       </c>
     </row>
     <row r="162">
@@ -3603,7 +3603,7 @@
         <v>0.54</v>
       </c>
       <c r="F162" t="n">
-        <v>0.00120312</v>
+        <v>1.20312</v>
       </c>
     </row>
     <row r="163">
@@ -3623,7 +3623,7 @@
         <v>0.57</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0012654</v>
+        <v>1.2654</v>
       </c>
     </row>
     <row r="164">
@@ -3643,7 +3643,7 @@
         <v>0.615</v>
       </c>
       <c r="F164" t="n">
-        <v>0.00137022</v>
+        <v>1.37022</v>
       </c>
     </row>
     <row r="165">
@@ -3663,7 +3663,7 @@
         <v>0.6599999999999999</v>
       </c>
       <c r="F165" t="n">
-        <v>0.00143352</v>
+        <v>1.43352</v>
       </c>
     </row>
     <row r="166">
@@ -3683,7 +3683,7 @@
         <v>0.6749999999999999</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0014418</v>
+        <v>1.4418</v>
       </c>
     </row>
     <row r="167">
@@ -3703,7 +3703,7 @@
         <v>0.735</v>
       </c>
       <c r="F167" t="n">
-        <v>0.00159054</v>
+        <v>1.59054</v>
       </c>
     </row>
     <row r="168">
@@ -3723,7 +3723,7 @@
         <v>0.765</v>
       </c>
       <c r="F168" t="n">
-        <v>0.00166158</v>
+        <v>1.66158</v>
       </c>
     </row>
     <row r="169">
@@ -3743,7 +3743,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="F169" t="n">
-        <v>0.00169494</v>
+        <v>1.69494</v>
       </c>
     </row>
     <row r="170">
@@ -3763,7 +3763,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="F170" t="n">
-        <v>0.0019728</v>
+        <v>1.9728</v>
       </c>
     </row>
     <row r="171">
@@ -3783,7 +3783,7 @@
         <v>0.96</v>
       </c>
       <c r="F171" t="n">
-        <v>0.00208128</v>
+        <v>2.08128</v>
       </c>
     </row>
     <row r="172">
@@ -3803,7 +3803,7 @@
         <v>1.005</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0021105</v>
+        <v>2.1105</v>
       </c>
     </row>
     <row r="173">
@@ -3823,7 +3823,7 @@
         <v>1.035</v>
       </c>
       <c r="F173" t="n">
-        <v>0.00220248</v>
+        <v>2.20248</v>
       </c>
     </row>
     <row r="174">
@@ -3843,7 +3843,7 @@
         <v>1.08</v>
       </c>
       <c r="F174" t="n">
-        <v>0.002293920000000001</v>
+        <v>2.293920000000001</v>
       </c>
     </row>
     <row r="175">
@@ -3863,7 +3863,7 @@
         <v>1.125</v>
       </c>
       <c r="F175" t="n">
-        <v>0.002385</v>
+        <v>2.385</v>
       </c>
     </row>
     <row r="176">
@@ -3883,7 +3883,7 @@
         <v>1.155</v>
       </c>
       <c r="F176" t="n">
-        <v>0.00239316</v>
+        <v>2.39316</v>
       </c>
     </row>
     <row r="177">
@@ -3903,7 +3903,7 @@
         <v>1.2</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0025056</v>
+        <v>2.5056</v>
       </c>
     </row>
     <row r="178">
@@ -3923,7 +3923,7 @@
         <v>1.365</v>
       </c>
       <c r="F178" t="n">
-        <v>0.00247338</v>
+        <v>2.47338</v>
       </c>
     </row>
     <row r="179">
@@ -3943,7 +3943,7 @@
         <v>1.41</v>
       </c>
       <c r="F179" t="n">
-        <v>0.00257184</v>
+        <v>2.57184</v>
       </c>
     </row>
     <row r="180">
@@ -3963,7 +3963,7 @@
         <v>1.47</v>
       </c>
       <c r="F180" t="n">
-        <v>0.00269892</v>
+        <v>2.69892</v>
       </c>
     </row>
     <row r="181">
@@ -3983,7 +3983,7 @@
         <v>1.515</v>
       </c>
       <c r="F181" t="n">
-        <v>0.00280578</v>
+        <v>2.80578</v>
       </c>
     </row>
     <row r="182">
@@ -4003,7 +4003,7 @@
         <v>1.545</v>
       </c>
       <c r="F182" t="n">
-        <v>0.00287988</v>
+        <v>2.87988</v>
       </c>
     </row>
     <row r="183">
@@ -4023,7 +4023,7 @@
         <v>1.65</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0031482</v>
+        <v>3.1482</v>
       </c>
     </row>
     <row r="184">
@@ -4043,7 +4043,7 @@
         <v>1.695</v>
       </c>
       <c r="F184" t="n">
-        <v>0.003261179999999999</v>
+        <v>3.261179999999999</v>
       </c>
     </row>
     <row r="185">
@@ -4063,7 +4063,7 @@
         <v>1.725</v>
       </c>
       <c r="F185" t="n">
-        <v>0.003339599999999999</v>
+        <v>3.339599999999999</v>
       </c>
     </row>
     <row r="186">
@@ -4083,7 +4083,7 @@
         <v>1.77</v>
       </c>
       <c r="F186" t="n">
-        <v>0.00345504</v>
+        <v>3.45504</v>
       </c>
     </row>
     <row r="187">
@@ -4103,7 +4103,7 @@
         <v>1.815</v>
       </c>
       <c r="F187" t="n">
-        <v>0.00357192</v>
+        <v>3.57192</v>
       </c>
     </row>
     <row r="188">
@@ -4123,7 +4123,7 @@
         <v>1.89</v>
       </c>
       <c r="F188" t="n">
-        <v>0.00377244</v>
+        <v>3.77244</v>
       </c>
     </row>
     <row r="189">
@@ -4143,7 +4143,7 @@
         <v>1.92</v>
       </c>
       <c r="F189" t="n">
-        <v>0.00386304</v>
+        <v>3.86304</v>
       </c>
     </row>
     <row r="190">
@@ -4163,7 +4163,7 @@
         <v>1.995</v>
       </c>
       <c r="F190" t="n">
-        <v>0.00405384</v>
+        <v>4.05384</v>
       </c>
     </row>
     <row r="191">
@@ -4183,7 +4183,7 @@
         <v>2.115</v>
       </c>
       <c r="F191" t="n">
-        <v>0.004416119999999999</v>
+        <v>4.416119999999999</v>
       </c>
     </row>
     <row r="192">
@@ -4203,7 +4203,7 @@
         <v>2.19</v>
       </c>
       <c r="F192" t="n">
-        <v>0.00460776</v>
+        <v>4.60776</v>
       </c>
     </row>
     <row r="193">
@@ -4223,7 +4223,7 @@
         <v>2.235</v>
       </c>
       <c r="F193" t="n">
-        <v>0.00471138</v>
+        <v>4.71138</v>
       </c>
     </row>
     <row r="194">
@@ -4243,7 +4243,7 @@
         <v>2.31</v>
       </c>
       <c r="F194" t="n">
-        <v>0.004897200000000001</v>
+        <v>4.897200000000001</v>
       </c>
     </row>
     <row r="195">
@@ -4263,7 +4263,7 @@
         <v>2.37</v>
       </c>
       <c r="F195" t="n">
-        <v>0.00505284</v>
+        <v>5.052840000000001</v>
       </c>
     </row>
     <row r="196">
@@ -4283,7 +4283,7 @@
         <v>2.415</v>
       </c>
       <c r="F196" t="n">
-        <v>0.00514878</v>
+        <v>5.14878</v>
       </c>
     </row>
     <row r="197">
@@ -4303,7 +4303,7 @@
         <v>2.55</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0054876</v>
+        <v>5.4876</v>
       </c>
     </row>
     <row r="198">
@@ -4323,7 +4323,7 @@
         <v>2.61</v>
       </c>
       <c r="F198" t="n">
-        <v>0.0056376</v>
+        <v>5.637600000000001</v>
       </c>
     </row>
     <row r="199">
@@ -4343,7 +4343,7 @@
         <v>2.715</v>
       </c>
       <c r="F199" t="n">
-        <v>0.005918700000000001</v>
+        <v>5.9187</v>
       </c>
     </row>
     <row r="200">
@@ -4363,7 +4363,7 @@
         <v>2.79</v>
       </c>
       <c r="F200" t="n">
-        <v>0.00610452</v>
+        <v>6.104520000000001</v>
       </c>
     </row>
     <row r="201">
@@ -4383,7 +4383,7 @@
         <v>2.85</v>
       </c>
       <c r="F201" t="n">
-        <v>0.006156000000000001</v>
+        <v>6.156000000000001</v>
       </c>
     </row>
     <row r="202">
@@ -4403,7 +4403,7 @@
         <v>2.91</v>
       </c>
       <c r="F202" t="n">
-        <v>0.006402</v>
+        <v>6.402</v>
       </c>
     </row>
     <row r="203">
@@ -4423,7 +4423,7 @@
         <v>2.97</v>
       </c>
       <c r="F203" t="n">
-        <v>0.0064746</v>
+        <v>6.4746</v>
       </c>
     </row>
     <row r="204">
@@ -4443,7 +4443,7 @@
         <v>3.09</v>
       </c>
       <c r="F204" t="n">
-        <v>0.00678564</v>
+        <v>6.78564</v>
       </c>
     </row>
     <row r="205">
@@ -4463,7 +4463,7 @@
         <v>3.15</v>
       </c>
       <c r="F205" t="n">
-        <v>0.006967800000000001</v>
+        <v>6.967800000000001</v>
       </c>
     </row>
     <row r="206">
@@ -4483,7 +4483,7 @@
         <v>3.195</v>
       </c>
       <c r="F206" t="n">
-        <v>0.007054560000000001</v>
+        <v>7.054560000000001</v>
       </c>
     </row>
     <row r="207">
@@ -4503,7 +4503,7 @@
         <v>3.285</v>
       </c>
       <c r="F207" t="n">
-        <v>0.00726642</v>
+        <v>7.26642</v>
       </c>
     </row>
     <row r="208">
@@ -4523,7 +4523,7 @@
         <v>3.36</v>
       </c>
       <c r="F208" t="n">
-        <v>0.00747264</v>
+        <v>7.47264</v>
       </c>
     </row>
     <row r="209">
@@ -4543,7 +4543,7 @@
         <v>3.435</v>
       </c>
       <c r="F209" t="n">
-        <v>0.007625700000000001</v>
+        <v>7.625700000000001</v>
       </c>
     </row>
     <row r="210">
@@ -4563,7 +4563,7 @@
         <v>3.48</v>
       </c>
       <c r="F210" t="n">
-        <v>0.007725600000000001</v>
+        <v>7.725600000000001</v>
       </c>
     </row>
     <row r="211">
@@ -4583,7 +4583,7 @@
         <v>3.525</v>
       </c>
       <c r="F211" t="n">
-        <v>0.007924200000000001</v>
+        <v>7.924200000000001</v>
       </c>
     </row>
     <row r="212">
@@ -4603,7 +4603,7 @@
         <v>3.645</v>
       </c>
       <c r="F212" t="n">
-        <v>0.008106480000000001</v>
+        <v>8.106480000000001</v>
       </c>
     </row>
     <row r="213">
@@ -4623,7 +4623,7 @@
         <v>3.675</v>
       </c>
       <c r="F213" t="n">
-        <v>0.008187900000000001</v>
+        <v>8.187900000000001</v>
       </c>
     </row>
     <row r="214">
@@ -4643,7 +4643,7 @@
         <v>3.735</v>
       </c>
       <c r="F214" t="n">
-        <v>0.008396280000000001</v>
+        <v>8.396280000000001</v>
       </c>
     </row>
     <row r="215">
@@ -4663,7 +4663,7 @@
         <v>3.78</v>
       </c>
       <c r="F215" t="n">
-        <v>0.00837648</v>
+        <v>8.376480000000001</v>
       </c>
     </row>
     <row r="216">
@@ -4683,7 +4683,7 @@
         <v>3.93</v>
       </c>
       <c r="F216" t="n">
-        <v>0.00883464</v>
+        <v>8.83464</v>
       </c>
     </row>
     <row r="217">
@@ -4703,7 +4703,7 @@
         <v>3.96</v>
       </c>
       <c r="F217" t="n">
-        <v>0.00888624</v>
+        <v>8.886240000000001</v>
       </c>
     </row>
     <row r="218">
@@ -4723,7 +4723,7 @@
         <v>3.99</v>
       </c>
       <c r="F218" t="n">
-        <v>0.008953559999999999</v>
+        <v>8.95356</v>
       </c>
     </row>
     <row r="219">
@@ -4743,7 +4743,7 @@
         <v>4.05</v>
       </c>
       <c r="F219" t="n">
-        <v>0.009007200000000002</v>
+        <v>9.007200000000001</v>
       </c>
     </row>
     <row r="220">
@@ -4763,7 +4763,7 @@
         <v>4.109999999999999</v>
       </c>
       <c r="F220" t="n">
-        <v>0.00922284</v>
+        <v>9.22284</v>
       </c>
     </row>
     <row r="221">
@@ -4783,7 +4783,7 @@
         <v>4.215</v>
       </c>
       <c r="F221" t="n">
-        <v>0.009475320000000001</v>
+        <v>9.47532</v>
       </c>
     </row>
     <row r="222">
@@ -4803,7 +4803,7 @@
         <v>4.245</v>
       </c>
       <c r="F222" t="n">
-        <v>0.009593700000000002</v>
+        <v>9.593700000000002</v>
       </c>
     </row>
     <row r="223">
@@ -4823,7 +4823,7 @@
         <v>4.29</v>
       </c>
       <c r="F223" t="n">
-        <v>0.009661080000000002</v>
+        <v>9.661080000000002</v>
       </c>
     </row>
     <row r="224">
@@ -4843,7 +4843,7 @@
         <v>4.335</v>
       </c>
       <c r="F224" t="n">
-        <v>0.009658380000000001</v>
+        <v>9.658380000000001</v>
       </c>
     </row>
     <row r="225">
@@ -4863,7 +4863,7 @@
         <v>4.365</v>
       </c>
       <c r="F225" t="n">
-        <v>0.009812520000000002</v>
+        <v>9.812520000000001</v>
       </c>
     </row>
     <row r="226">
@@ -4883,7 +4883,7 @@
         <v>4.41</v>
       </c>
       <c r="F226" t="n">
-        <v>0.009896040000000002</v>
+        <v>9.896040000000001</v>
       </c>
     </row>
     <row r="227">
@@ -4903,7 +4903,7 @@
         <v>4.455</v>
       </c>
       <c r="F227" t="n">
-        <v>0.01003266</v>
+        <v>10.03266</v>
       </c>
     </row>
     <row r="228">
@@ -4923,7 +4923,7 @@
         <v>4.5</v>
       </c>
       <c r="F228" t="n">
-        <v>0.010026</v>
+        <v>10.026</v>
       </c>
     </row>
     <row r="229">
@@ -4943,7 +4943,7 @@
         <v>4.53</v>
       </c>
       <c r="F229" t="n">
-        <v>0.01012908</v>
+        <v>10.12908</v>
       </c>
     </row>
     <row r="230">
@@ -4963,7 +4963,7 @@
         <v>4.605</v>
       </c>
       <c r="F230" t="n">
-        <v>0.0100389</v>
+        <v>10.0389</v>
       </c>
     </row>
     <row r="231">
@@ -4983,7 +4983,7 @@
         <v>4.649999999999999</v>
       </c>
       <c r="F231" t="n">
-        <v>0.0105462</v>
+        <v>10.5462</v>
       </c>
     </row>
     <row r="232">
@@ -5003,7 +5003,7 @@
         <v>4.68</v>
       </c>
       <c r="F232" t="n">
-        <v>0.01046448</v>
+        <v>10.46448</v>
       </c>
     </row>
     <row r="233">
@@ -5023,7 +5023,7 @@
         <v>4.71</v>
       </c>
       <c r="F233" t="n">
-        <v>0.0106446</v>
+        <v>10.6446</v>
       </c>
     </row>
     <row r="234">
@@ -5043,7 +5043,7 @@
         <v>4.725</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0106029</v>
+        <v>10.6029</v>
       </c>
     </row>
     <row r="235">
@@ -5063,7 +5063,7 @@
         <v>4.755</v>
       </c>
       <c r="F235" t="n">
-        <v>0.0107463</v>
+        <v>10.7463</v>
       </c>
     </row>
     <row r="236">
@@ -5083,7 +5083,7 @@
         <v>4.785</v>
       </c>
       <c r="F236" t="n">
-        <v>0.01073754</v>
+        <v>10.73754</v>
       </c>
     </row>
     <row r="237">
@@ -5103,7 +5103,7 @@
         <v>4.815</v>
       </c>
       <c r="F237" t="n">
-        <v>0.01065078</v>
+        <v>10.65078</v>
       </c>
     </row>
     <row r="238">
@@ -5123,7 +5123,7 @@
         <v>4.83</v>
       </c>
       <c r="F238" t="n">
-        <v>0.01079988</v>
+        <v>10.79988</v>
       </c>
     </row>
     <row r="239">
@@ -5143,7 +5143,7 @@
         <v>4.845</v>
       </c>
       <c r="F239" t="n">
-        <v>0.01108536</v>
+        <v>11.08536</v>
       </c>
     </row>
     <row r="240">
@@ -5163,7 +5163,7 @@
         <v>4.89</v>
       </c>
       <c r="F240" t="n">
-        <v>0.01091448</v>
+        <v>10.91448</v>
       </c>
     </row>
     <row r="241">
@@ -5183,7 +5183,7 @@
         <v>4.905</v>
       </c>
       <c r="F241" t="n">
-        <v>0.01096758</v>
+        <v>10.96758</v>
       </c>
     </row>
     <row r="242">
@@ -5203,7 +5203,7 @@
         <v>4.98</v>
       </c>
       <c r="F242" t="n">
-        <v>0.01127472</v>
+        <v>11.27472</v>
       </c>
     </row>
     <row r="243">
@@ -5223,7 +5223,7 @@
         <v>5.024999999999999</v>
       </c>
       <c r="F243" t="n">
-        <v>0.0111756</v>
+        <v>11.1756</v>
       </c>
     </row>
     <row r="244">
@@ -5243,7 +5243,7 @@
         <v>5.069999999999999</v>
       </c>
       <c r="F244" t="n">
-        <v>0.01137708</v>
+        <v>11.37708</v>
       </c>
     </row>
     <row r="245">
@@ -5263,7 +5263,7 @@
         <v>5.13</v>
       </c>
       <c r="F245" t="n">
-        <v>0.01147068</v>
+        <v>11.47068</v>
       </c>
     </row>
     <row r="246">
@@ -5283,7 +5283,7 @@
         <v>5.175</v>
       </c>
       <c r="F246" t="n">
-        <v>0.0114057</v>
+        <v>11.4057</v>
       </c>
     </row>
     <row r="247">
@@ -5303,7 +5303,7 @@
         <v>5.22</v>
       </c>
       <c r="F247" t="n">
-        <v>0.0115884</v>
+        <v>11.5884</v>
       </c>
     </row>
     <row r="248">
@@ -5323,7 +5323,7 @@
         <v>5.265</v>
       </c>
       <c r="F248" t="n">
-        <v>0.01170936</v>
+        <v>11.70936</v>
       </c>
     </row>
     <row r="249">
@@ -5343,7 +5343,7 @@
         <v>5.295</v>
       </c>
       <c r="F249" t="n">
-        <v>0.01188198</v>
+        <v>11.88198</v>
       </c>
     </row>
     <row r="250">
@@ -5363,7 +5363,7 @@
         <v>5.34</v>
       </c>
       <c r="F250" t="n">
-        <v>0.01161984</v>
+        <v>11.61984</v>
       </c>
     </row>
     <row r="251">
@@ -5383,7 +5383,7 @@
         <v>5.385</v>
       </c>
       <c r="F251" t="n">
-        <v>0.01199778</v>
+        <v>11.99778</v>
       </c>
     </row>
     <row r="252">
@@ -5403,7 +5403,7 @@
         <v>5.46</v>
       </c>
       <c r="F252" t="n">
-        <v>0.01225224</v>
+        <v>12.25224</v>
       </c>
     </row>
     <row r="253">
@@ -5423,7 +5423,7 @@
         <v>5.49</v>
       </c>
       <c r="F253" t="n">
-        <v>0.01216584</v>
+        <v>12.16584</v>
       </c>
     </row>
     <row r="254">
@@ -5443,7 +5443,7 @@
         <v>5.52</v>
       </c>
       <c r="F254" t="n">
-        <v>0.01223232</v>
+        <v>12.23232</v>
       </c>
     </row>
     <row r="255">
@@ -5463,7 +5463,7 @@
         <v>5.625</v>
       </c>
       <c r="F255" t="n">
-        <v>0.01242</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="256">
@@ -5483,7 +5483,7 @@
         <v>5.654999999999999</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0125541</v>
+        <v>12.5541</v>
       </c>
     </row>
     <row r="257">
@@ -5503,7 +5503,7 @@
         <v>5.685</v>
       </c>
       <c r="F257" t="n">
-        <v>0.01264344</v>
+        <v>12.64344</v>
       </c>
     </row>
     <row r="258">
@@ -5523,7 +5523,7 @@
         <v>5.774999999999999</v>
       </c>
       <c r="F258" t="n">
-        <v>0.0127974</v>
+        <v>12.7974</v>
       </c>
     </row>
     <row r="259">
@@ -5543,7 +5543,7 @@
         <v>5.805</v>
       </c>
       <c r="F259" t="n">
-        <v>0.01291032</v>
+        <v>12.91032</v>
       </c>
     </row>
     <row r="260">
@@ -5563,7 +5563,7 @@
         <v>5.835</v>
       </c>
       <c r="F260" t="n">
-        <v>0.01290702</v>
+        <v>12.90702</v>
       </c>
     </row>
     <row r="261">
@@ -5583,7 +5583,7 @@
         <v>5.88</v>
       </c>
       <c r="F261" t="n">
-        <v>0.01307712</v>
+        <v>13.07712</v>
       </c>
     </row>
     <row r="262">
@@ -5603,7 +5603,7 @@
         <v>5.925</v>
       </c>
       <c r="F262" t="n">
-        <v>0.0131298</v>
+        <v>13.1298</v>
       </c>
     </row>
     <row r="263">
@@ -5623,7 +5623,7 @@
         <v>5.955</v>
       </c>
       <c r="F263" t="n">
-        <v>0.0132201</v>
+        <v>13.2201</v>
       </c>
     </row>
     <row r="264">
@@ -5643,7 +5643,7 @@
         <v>5.984999999999999</v>
       </c>
       <c r="F264" t="n">
-        <v>0.01335852</v>
+        <v>13.35852</v>
       </c>
     </row>
     <row r="265">
@@ -5663,7 +5663,7 @@
         <v>6.015</v>
       </c>
       <c r="F265" t="n">
-        <v>0.01332924</v>
+        <v>13.32924</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5683,7 @@
         <v>6.045</v>
       </c>
       <c r="F266" t="n">
-        <v>0.01346826</v>
+        <v>13.46826</v>
       </c>
     </row>
     <row r="267">
@@ -5703,7 +5703,7 @@
         <v>6.075</v>
       </c>
       <c r="F267" t="n">
-        <v>0.0133893</v>
+        <v>13.3893</v>
       </c>
     </row>
     <row r="268">
@@ -5723,7 +5723,7 @@
         <v>6.165</v>
       </c>
       <c r="F268" t="n">
-        <v>0.01376028</v>
+        <v>13.76028</v>
       </c>
     </row>
     <row r="269">
@@ -5743,7 +5743,7 @@
         <v>6.18</v>
       </c>
       <c r="F269" t="n">
-        <v>0.0137196</v>
+        <v>13.7196</v>
       </c>
     </row>
     <row r="270">
@@ -5763,7 +5763,7 @@
         <v>6.225</v>
       </c>
       <c r="F270" t="n">
-        <v>0.0138942</v>
+        <v>13.8942</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5783,7 @@
         <v>6.27</v>
       </c>
       <c r="F271" t="n">
-        <v>0.01369368</v>
+        <v>13.69368</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>6.33</v>
       </c>
       <c r="F272" t="n">
-        <v>0.01387536</v>
+        <v>13.87536</v>
       </c>
     </row>
     <row r="273">
@@ -5823,7 +5823,7 @@
         <v>6.375</v>
       </c>
       <c r="F273" t="n">
-        <v>0.014178</v>
+        <v>14.178</v>
       </c>
     </row>
     <row r="274">
@@ -5843,7 +5843,7 @@
         <v>6.435</v>
       </c>
       <c r="F274" t="n">
-        <v>0.01387386</v>
+        <v>13.87386</v>
       </c>
     </row>
     <row r="275">
@@ -5863,7 +5863,7 @@
         <v>6.465</v>
       </c>
       <c r="F275" t="n">
-        <v>0.01414542</v>
+        <v>14.14542</v>
       </c>
     </row>
     <row r="276">
@@ -5883,7 +5883,7 @@
         <v>6.51</v>
       </c>
       <c r="F276" t="n">
-        <v>0.01437408</v>
+        <v>14.37408</v>
       </c>
     </row>
     <row r="277">
@@ -5903,7 +5903,7 @@
         <v>6.555</v>
       </c>
       <c r="F277" t="n">
-        <v>0.01436856</v>
+        <v>14.36856</v>
       </c>
     </row>
     <row r="278">
@@ -5923,7 +5923,7 @@
         <v>6.569999999999999</v>
       </c>
       <c r="F278" t="n">
-        <v>0.01448028</v>
+        <v>14.48028</v>
       </c>
     </row>
     <row r="279">
@@ -5943,7 +5943,7 @@
         <v>6.614999999999999</v>
       </c>
       <c r="F279" t="n">
-        <v>0.01447362</v>
+        <v>14.47362</v>
       </c>
     </row>
     <row r="280">
@@ -5963,7 +5963,7 @@
         <v>6.645</v>
       </c>
       <c r="F280" t="n">
-        <v>0.0144861</v>
+        <v>14.4861</v>
       </c>
     </row>
     <row r="281">
@@ -5983,7 +5983,7 @@
         <v>6.69</v>
       </c>
       <c r="F281" t="n">
-        <v>0.01469124</v>
+        <v>14.69124</v>
       </c>
     </row>
     <row r="282">
@@ -6003,7 +6003,7 @@
         <v>6.734999999999999</v>
       </c>
       <c r="F282" t="n">
-        <v>0.01460148</v>
+        <v>14.60148</v>
       </c>
     </row>
     <row r="283">
@@ -6023,7 +6023,7 @@
         <v>6.765</v>
       </c>
       <c r="F283" t="n">
-        <v>0.01491006</v>
+        <v>14.91006</v>
       </c>
     </row>
     <row r="284">
@@ -6043,7 +6043,7 @@
         <v>6.81</v>
       </c>
       <c r="F284" t="n">
-        <v>0.014982</v>
+        <v>14.982</v>
       </c>
     </row>
     <row r="285">
@@ -6063,7 +6063,7 @@
         <v>6.84</v>
       </c>
       <c r="F285" t="n">
-        <v>0.0149112</v>
+        <v>14.9112</v>
       </c>
     </row>
     <row r="286">
@@ -6083,7 +6083,7 @@
         <v>6.87</v>
       </c>
       <c r="F286" t="n">
-        <v>0.01516896</v>
+        <v>15.16896</v>
       </c>
     </row>
     <row r="287">
@@ -6103,7 +6103,7 @@
         <v>6.93</v>
       </c>
       <c r="F287" t="n">
-        <v>0.01507968</v>
+        <v>15.07968</v>
       </c>
     </row>
     <row r="288">
@@ -6123,7 +6123,7 @@
         <v>6.96</v>
       </c>
       <c r="F288" t="n">
-        <v>0.01520064</v>
+        <v>15.20064</v>
       </c>
     </row>
     <row r="289">
@@ -6143,7 +6143,7 @@
         <v>7.065</v>
       </c>
       <c r="F289" t="n">
-        <v>0.01531692</v>
+        <v>15.31692</v>
       </c>
     </row>
     <row r="290">
@@ -6163,7 +6163,7 @@
         <v>7.154999999999999</v>
       </c>
       <c r="F290" t="n">
-        <v>0.01562652</v>
+        <v>15.62652</v>
       </c>
     </row>
     <row r="291">
@@ -6183,7 +6183,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="F291" t="n">
-        <v>0.0156672</v>
+        <v>15.6672</v>
       </c>
     </row>
     <row r="292">
@@ -6203,7 +6203,7 @@
         <v>7.305</v>
       </c>
       <c r="F292" t="n">
-        <v>0.01598334</v>
+        <v>15.98334</v>
       </c>
     </row>
     <row r="293">
@@ -6223,7 +6223,7 @@
         <v>7.335</v>
       </c>
       <c r="F293" t="n">
-        <v>0.01593162</v>
+        <v>15.93162</v>
       </c>
     </row>
     <row r="294">
@@ -6243,7 +6243,7 @@
         <v>7.44</v>
       </c>
       <c r="F294" t="n">
-        <v>0.01630848</v>
+        <v>16.30848</v>
       </c>
     </row>
     <row r="295">
@@ -6263,7 +6263,7 @@
         <v>7.5</v>
       </c>
       <c r="F295" t="n">
-        <v>0.01647</v>
+        <v>16.47</v>
       </c>
     </row>
     <row r="296">
@@ -6283,7 +6283,7 @@
         <v>7.529999999999999</v>
       </c>
       <c r="F296" t="n">
-        <v>0.01653588</v>
+        <v>16.53588</v>
       </c>
     </row>
     <row r="297">
@@ -6303,7 +6303,7 @@
         <v>7.59</v>
       </c>
       <c r="F297" t="n">
-        <v>0.01666764</v>
+        <v>16.66764</v>
       </c>
     </row>
     <row r="298">
@@ -6323,7 +6323,7 @@
         <v>7.755</v>
       </c>
       <c r="F298" t="n">
-        <v>0.01696794</v>
+        <v>16.96794</v>
       </c>
     </row>
     <row r="299">
@@ -6343,7 +6343,7 @@
         <v>7.8</v>
       </c>
       <c r="F299" t="n">
-        <v>0.0170352</v>
+        <v>17.0352</v>
       </c>
     </row>
     <row r="300">
@@ -6363,7 +6363,7 @@
         <v>7.949999999999999</v>
       </c>
       <c r="F300" t="n">
-        <v>0.0172674</v>
+        <v>17.2674</v>
       </c>
     </row>
     <row r="301">
@@ -6383,7 +6383,7 @@
         <v>8.025</v>
       </c>
       <c r="F301" t="n">
-        <v>0.017334</v>
+        <v>17.334</v>
       </c>
     </row>
     <row r="302">
@@ -6403,7 +6403,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="F302" t="n">
-        <v>0.01749576</v>
+        <v>17.49576</v>
       </c>
     </row>
     <row r="303">
@@ -6423,7 +6423,7 @@
         <v>8.205</v>
       </c>
       <c r="F303" t="n">
-        <v>0.01765716</v>
+        <v>17.65716</v>
       </c>
     </row>
     <row r="304">
@@ -6443,7 +6443,7 @@
         <v>8.295</v>
       </c>
       <c r="F304" t="n">
-        <v>0.01788402</v>
+        <v>17.88402</v>
       </c>
     </row>
     <row r="305">
@@ -6463,7 +6463,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="F305" t="n">
-        <v>0.01801224</v>
+        <v>18.01224</v>
       </c>
     </row>
     <row r="306">
@@ -6483,7 +6483,7 @@
         <v>8.475</v>
       </c>
       <c r="F306" t="n">
-        <v>0.0182721</v>
+        <v>18.2721</v>
       </c>
     </row>
     <row r="307">
@@ -6503,7 +6503,7 @@
         <v>8.549999999999999</v>
       </c>
       <c r="F307" t="n">
-        <v>0.0184338</v>
+        <v>18.4338</v>
       </c>
     </row>
     <row r="308">
@@ -6523,7 +6523,7 @@
         <v>8.58</v>
       </c>
       <c r="F308" t="n">
-        <v>0.01849848</v>
+        <v>18.49848</v>
       </c>
     </row>
     <row r="309">
@@ -6543,7 +6543,7 @@
         <v>8.654999999999999</v>
       </c>
       <c r="F309" t="n">
-        <v>0.01866018</v>
+        <v>18.66018</v>
       </c>
     </row>
     <row r="310">
@@ -6563,7 +6563,7 @@
         <v>8.715</v>
       </c>
       <c r="F310" t="n">
-        <v>0.0188244</v>
+        <v>18.8244</v>
       </c>
     </row>
     <row r="311">
@@ -6583,7 +6583,7 @@
         <v>8.789999999999999</v>
       </c>
       <c r="F311" t="n">
-        <v>0.0189864</v>
+        <v>18.9864</v>
       </c>
     </row>
     <row r="312">
@@ -6603,7 +6603,7 @@
         <v>8.85</v>
       </c>
       <c r="F312" t="n">
-        <v>0.019116</v>
+        <v>19.116</v>
       </c>
     </row>
     <row r="313">
@@ -6623,7 +6623,7 @@
         <v>8.924999999999999</v>
       </c>
       <c r="F313" t="n">
-        <v>0.019278</v>
+        <v>19.278</v>
       </c>
     </row>
     <row r="314">
@@ -6643,7 +6643,7 @@
         <v>9.164999999999999</v>
       </c>
       <c r="F314" t="n">
-        <v>0.020163</v>
+        <v>20.163</v>
       </c>
     </row>
     <row r="315">
@@ -6663,7 +6663,7 @@
         <v>9.27</v>
       </c>
       <c r="F315" t="n">
-        <v>0.02009736</v>
+        <v>20.09736</v>
       </c>
     </row>
     <row r="316">
@@ -6683,7 +6683,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="F316" t="n">
-        <v>0.02025504</v>
+        <v>20.25504</v>
       </c>
     </row>
     <row r="317">
@@ -6703,7 +6703,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="F317" t="n">
-        <v>0.0204876</v>
+        <v>20.4876</v>
       </c>
     </row>
     <row r="318">
@@ -6723,7 +6723,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="F318" t="n">
-        <v>0.02072088</v>
+        <v>20.72088</v>
       </c>
     </row>
     <row r="319">
@@ -6743,7 +6743,7 @@
         <v>9.66</v>
       </c>
       <c r="F319" t="n">
-        <v>0.02098152</v>
+        <v>20.98152</v>
       </c>
     </row>
     <row r="320">
@@ -6763,7 +6763,7 @@
         <v>9.75</v>
       </c>
       <c r="F320" t="n">
-        <v>0.021177</v>
+        <v>21.177</v>
       </c>
     </row>
     <row r="321">
@@ -6783,7 +6783,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="F321" t="n">
-        <v>0.02147712</v>
+        <v>21.47712</v>
       </c>
     </row>
     <row r="322">
@@ -6803,7 +6803,7 @@
         <v>10.185</v>
       </c>
       <c r="F322" t="n">
-        <v>0.02216256</v>
+        <v>22.16256</v>
       </c>
     </row>
     <row r="323">
@@ -6823,7 +6823,7 @@
         <v>10.365</v>
       </c>
       <c r="F323" t="n">
-        <v>0.0225957</v>
+        <v>22.5957</v>
       </c>
     </row>
     <row r="324">
@@ -6843,7 +6843,7 @@
         <v>10.53</v>
       </c>
       <c r="F324" t="n">
-        <v>0.02299752</v>
+        <v>22.99752</v>
       </c>
     </row>
     <row r="325">
@@ -6863,7 +6863,7 @@
         <v>10.71</v>
       </c>
       <c r="F325" t="n">
-        <v>0.02343348</v>
+        <v>23.43348</v>
       </c>
     </row>
     <row r="326">
@@ -6883,7 +6883,7 @@
         <v>10.875</v>
       </c>
       <c r="F326" t="n">
-        <v>0.0237945</v>
+        <v>23.7945</v>
       </c>
     </row>
     <row r="327">
@@ -6903,7 +6903,7 @@
         <v>11.085</v>
       </c>
       <c r="F327" t="n">
-        <v>0.02429832</v>
+        <v>24.29832</v>
       </c>
     </row>
     <row r="328">
@@ -6923,7 +6923,7 @@
         <v>11.31</v>
       </c>
       <c r="F328" t="n">
-        <v>0.02479152</v>
+        <v>24.79152</v>
       </c>
     </row>
     <row r="329">
@@ -6943,7 +6943,7 @@
         <v>11.565</v>
       </c>
       <c r="F329" t="n">
-        <v>0.02539674</v>
+        <v>25.39674</v>
       </c>
     </row>
     <row r="330">
@@ -6963,7 +6963,7 @@
         <v>11.85</v>
       </c>
       <c r="F330" t="n">
-        <v>0.02607</v>
+        <v>26.07</v>
       </c>
     </row>
     <row r="331">
@@ -6983,7 +6983,7 @@
         <v>12.15</v>
       </c>
       <c r="F331" t="n">
-        <v>0.0267786</v>
+        <v>26.7786</v>
       </c>
     </row>
     <row r="332">
@@ -7003,7 +7003,7 @@
         <v>12.675</v>
       </c>
       <c r="F332" t="n">
-        <v>0.0279864</v>
+        <v>27.9864</v>
       </c>
     </row>
     <row r="333">
@@ -7023,7 +7023,7 @@
         <v>12.825</v>
       </c>
       <c r="F333" t="n">
-        <v>0.0283176</v>
+        <v>28.3176</v>
       </c>
     </row>
     <row r="334">
@@ -7043,7 +7043,7 @@
         <v>12.93</v>
       </c>
       <c r="F334" t="n">
-        <v>0.02854944</v>
+        <v>28.54944</v>
       </c>
     </row>
     <row r="335">
@@ -7063,7 +7063,7 @@
         <v>13.02</v>
       </c>
       <c r="F335" t="n">
-        <v>0.02880024</v>
+        <v>28.80024</v>
       </c>
     </row>
     <row r="336">
@@ -7083,7 +7083,7 @@
         <v>13.11</v>
       </c>
       <c r="F336" t="n">
-        <v>0.02899932</v>
+        <v>28.99932</v>
       </c>
     </row>
     <row r="337">
@@ -7103,7 +7103,7 @@
         <v>13.215</v>
       </c>
       <c r="F337" t="n">
-        <v>0.02923158</v>
+        <v>29.23158</v>
       </c>
     </row>
     <row r="338">
@@ -7123,7 +7123,7 @@
         <v>13.425</v>
       </c>
       <c r="F338" t="n">
-        <v>0.0296424</v>
+        <v>29.6424</v>
       </c>
     </row>
     <row r="339">
@@ -7143,7 +7143,7 @@
         <v>13.635</v>
       </c>
       <c r="F339" t="n">
-        <v>0.02983338</v>
+        <v>29.83338</v>
       </c>
     </row>
     <row r="340">
@@ -7163,7 +7163,7 @@
         <v>13.815</v>
       </c>
       <c r="F340" t="n">
-        <v>0.03022722</v>
+        <v>30.22722</v>
       </c>
     </row>
     <row r="341">
@@ -7183,7 +7183,7 @@
         <v>14.145</v>
       </c>
       <c r="F341" t="n">
-        <v>0.03089268</v>
+        <v>30.89268</v>
       </c>
     </row>
     <row r="342">
@@ -7203,7 +7203,7 @@
         <v>14.49</v>
       </c>
       <c r="F342" t="n">
-        <v>0.0315882</v>
+        <v>31.5882</v>
       </c>
     </row>
     <row r="343">
@@ -7223,7 +7223,7 @@
         <v>14.835</v>
       </c>
       <c r="F343" t="n">
-        <v>0.03228096</v>
+        <v>32.28096</v>
       </c>
     </row>
     <row r="344">
@@ -7243,7 +7243,7 @@
         <v>16.32</v>
       </c>
       <c r="F344" t="n">
-        <v>0.03531648</v>
+        <v>35.31648</v>
       </c>
     </row>
     <row r="345">
@@ -7263,7 +7263,7 @@
         <v>17.025</v>
       </c>
       <c r="F345" t="n">
-        <v>0.03738689999999999</v>
+        <v>37.38689999999999</v>
       </c>
     </row>
     <row r="346">
@@ -7283,7 +7283,7 @@
         <v>17.385</v>
       </c>
       <c r="F346" t="n">
-        <v>0.0368562</v>
+        <v>36.8562</v>
       </c>
     </row>
     <row r="347">
@@ -7303,7 +7303,7 @@
         <v>17.535</v>
       </c>
       <c r="F347" t="n">
-        <v>0.0375249</v>
+        <v>37.5249</v>
       </c>
     </row>
     <row r="348">
@@ -7323,7 +7323,7 @@
         <v>17.58</v>
       </c>
       <c r="F348" t="n">
-        <v>0.03832439999999999</v>
+        <v>38.32439999999999</v>
       </c>
     </row>
     <row r="349">
@@ -7343,7 +7343,7 @@
         <v>17.625</v>
       </c>
       <c r="F349" t="n">
-        <v>0.0381405</v>
+        <v>38.1405</v>
       </c>
     </row>
     <row r="350">
@@ -7363,7 +7363,7 @@
         <v>17.715</v>
       </c>
       <c r="F350" t="n">
-        <v>0.03861870000000001</v>
+        <v>38.61870000000001</v>
       </c>
     </row>
     <row r="351">
@@ -7383,7 +7383,7 @@
         <v>17.82</v>
       </c>
       <c r="F351" t="n">
-        <v>0.03856248</v>
+        <v>38.56248</v>
       </c>
     </row>
     <row r="352">
@@ -7403,7 +7403,7 @@
         <v>17.88</v>
       </c>
       <c r="F352" t="n">
-        <v>0.03869232</v>
+        <v>38.69232</v>
       </c>
     </row>
     <row r="353">
@@ -7423,7 +7423,7 @@
         <v>17.925</v>
       </c>
       <c r="F353" t="n">
-        <v>0.0395784</v>
+        <v>39.5784</v>
       </c>
     </row>
     <row r="354">
@@ -7443,7 +7443,7 @@
         <v>18.06</v>
       </c>
       <c r="F354" t="n">
-        <v>0.04002096</v>
+        <v>40.02096</v>
       </c>
     </row>
     <row r="355">
@@ -7463,7 +7463,7 @@
         <v>18.21</v>
       </c>
       <c r="F355" t="n">
-        <v>0.03962496</v>
+        <v>39.62496</v>
       </c>
     </row>
     <row r="356">
@@ -7483,7 +7483,7 @@
         <v>18.855</v>
       </c>
       <c r="F356" t="n">
-        <v>0.04117932000000001</v>
+        <v>41.17932000000001</v>
       </c>
     </row>
     <row r="357">
@@ -7503,7 +7503,7 @@
         <v>19.65</v>
       </c>
       <c r="F357" t="n">
-        <v>0.0426798</v>
+        <v>42.6798</v>
       </c>
     </row>
     <row r="358">
@@ -7523,7 +7523,7 @@
         <v>19.86</v>
       </c>
       <c r="F358" t="n">
-        <v>0.04337424</v>
+        <v>43.37424</v>
       </c>
     </row>
     <row r="359">
@@ -7543,7 +7543,7 @@
         <v>20.1</v>
       </c>
       <c r="F359" t="n">
-        <v>0.0433356</v>
+        <v>43.3356</v>
       </c>
     </row>
     <row r="360">
@@ -7563,7 +7563,7 @@
         <v>20.7</v>
       </c>
       <c r="F360" t="n">
-        <v>0.0445464</v>
+        <v>44.5464</v>
       </c>
     </row>
     <row r="361">
@@ -7583,7 +7583,7 @@
         <v>20.295</v>
       </c>
       <c r="F361" t="n">
-        <v>0.04335012</v>
+        <v>43.35012</v>
       </c>
     </row>
     <row r="362">
@@ -7603,7 +7603,7 @@
         <v>19.785</v>
       </c>
       <c r="F362" t="n">
-        <v>0.04336872000000001</v>
+        <v>43.36872000000001</v>
       </c>
     </row>
     <row r="363">
@@ -7623,7 +7623,7 @@
         <v>19.83</v>
       </c>
       <c r="F363" t="n">
-        <v>0.04354668</v>
+        <v>43.54667999999999</v>
       </c>
     </row>
     <row r="364">
@@ -7643,7 +7643,7 @@
         <v>19.605</v>
       </c>
       <c r="F364" t="n">
-        <v>0.04250364</v>
+        <v>42.50364</v>
       </c>
     </row>
     <row r="365">
@@ -7663,7 +7663,7 @@
         <v>19.785</v>
       </c>
       <c r="F365" t="n">
-        <v>0.04289388</v>
+        <v>42.89388</v>
       </c>
     </row>
     <row r="366">
@@ -7683,7 +7683,7 @@
         <v>19.98</v>
       </c>
       <c r="F366" t="n">
-        <v>0.04331664</v>
+        <v>43.31664</v>
       </c>
     </row>
     <row r="367">
@@ -7703,7 +7703,7 @@
         <v>20.22</v>
       </c>
       <c r="F367" t="n">
-        <v>0.04383695999999999</v>
+        <v>43.83695999999999</v>
       </c>
     </row>
     <row r="368">
@@ -7723,7 +7723,7 @@
         <v>20.64</v>
       </c>
       <c r="F368" t="n">
-        <v>0.04441728</v>
+        <v>44.41728000000001</v>
       </c>
     </row>
     <row r="369">
@@ -7743,7 +7743,7 @@
         <v>20.73</v>
       </c>
       <c r="F369" t="n">
-        <v>0.0447768</v>
+        <v>44.7768</v>
       </c>
     </row>
     <row r="370">
@@ -7763,7 +7763,7 @@
         <v>20.865</v>
       </c>
       <c r="F370" t="n">
-        <v>0.04515186</v>
+        <v>45.15186</v>
       </c>
     </row>
     <row r="371">
@@ -7783,7 +7783,7 @@
         <v>21.015</v>
       </c>
       <c r="F371" t="n">
-        <v>0.04564458</v>
+        <v>45.64458</v>
       </c>
     </row>
     <row r="372">
@@ -7803,7 +7803,7 @@
         <v>21.225</v>
       </c>
       <c r="F372" t="n">
-        <v>0.0457611</v>
+        <v>45.7611</v>
       </c>
     </row>
     <row r="373">
@@ -7823,7 +7823,7 @@
         <v>21.435</v>
       </c>
       <c r="F373" t="n">
-        <v>0.04621386</v>
+        <v>46.21386</v>
       </c>
     </row>
     <row r="374">
@@ -7843,7 +7843,7 @@
         <v>21.585</v>
       </c>
       <c r="F374" t="n">
-        <v>0.04627824000000001</v>
+        <v>46.27824000000001</v>
       </c>
     </row>
     <row r="375">
@@ -7863,7 +7863,7 @@
         <v>21.69</v>
       </c>
       <c r="F375" t="n">
-        <v>0.04667688</v>
+        <v>46.67688</v>
       </c>
     </row>
     <row r="376">
@@ -7883,7 +7883,7 @@
         <v>21.795</v>
       </c>
       <c r="F376" t="n">
-        <v>0.04742592</v>
+        <v>47.42592</v>
       </c>
     </row>
     <row r="377">
@@ -7903,7 +7903,7 @@
         <v>21.87</v>
       </c>
       <c r="F377" t="n">
-        <v>0.04697676</v>
+        <v>46.97676</v>
       </c>
     </row>
     <row r="378">
@@ -7923,7 +7923,7 @@
         <v>21.945</v>
       </c>
       <c r="F378" t="n">
-        <v>0.04775232000000001</v>
+        <v>47.75232</v>
       </c>
     </row>
     <row r="379">
@@ -7943,7 +7943,7 @@
         <v>22.26</v>
       </c>
       <c r="F379" t="n">
-        <v>0.0480816</v>
+        <v>48.0816</v>
       </c>
     </row>
     <row r="380">
@@ -7963,7 +7963,7 @@
         <v>22.485</v>
       </c>
       <c r="F380" t="n">
-        <v>0.04919718</v>
+        <v>49.19718</v>
       </c>
     </row>
     <row r="381">
@@ -7983,7 +7983,7 @@
         <v>22.83</v>
       </c>
       <c r="F381" t="n">
-        <v>0.0493128</v>
+        <v>49.3128</v>
       </c>
     </row>
     <row r="382">
@@ -8003,7 +8003,7 @@
         <v>22.89</v>
       </c>
       <c r="F382" t="n">
-        <v>0.04953396000000001</v>
+        <v>49.53396000000001</v>
       </c>
     </row>
     <row r="383">
@@ -8023,7 +8023,7 @@
         <v>22.965</v>
       </c>
       <c r="F383" t="n">
-        <v>0.04987998</v>
+        <v>49.87998</v>
       </c>
     </row>
     <row r="384">
@@ -8043,7 +8043,7 @@
         <v>23.16</v>
       </c>
       <c r="F384" t="n">
-        <v>0.04993296</v>
+        <v>49.93296</v>
       </c>
     </row>
     <row r="385">
@@ -8063,7 +8063,7 @@
         <v>23.385</v>
       </c>
       <c r="F385" t="n">
-        <v>0.05032452</v>
+        <v>50.32452</v>
       </c>
     </row>
     <row r="386">
@@ -8083,7 +8083,7 @@
         <v>23.715</v>
       </c>
       <c r="F386" t="n">
-        <v>0.05188842</v>
+        <v>51.88842</v>
       </c>
     </row>
     <row r="387">
@@ -8103,7 +8103,7 @@
         <v>24.555</v>
       </c>
       <c r="F387" t="n">
-        <v>0.05313702</v>
+        <v>53.13702</v>
       </c>
     </row>
     <row r="388">
@@ -8123,7 +8123,7 @@
         <v>24.855</v>
       </c>
       <c r="F388" t="n">
-        <v>0.05378622000000001</v>
+        <v>53.78622000000001</v>
       </c>
     </row>
     <row r="389">
@@ -8143,7 +8143,7 @@
         <v>25.5</v>
       </c>
       <c r="F389" t="n">
-        <v>0.05548800000000001</v>
+        <v>55.48800000000001</v>
       </c>
     </row>
     <row r="390">
@@ -8163,7 +8163,7 @@
         <v>25.56</v>
       </c>
       <c r="F390" t="n">
-        <v>0.05510736</v>
+        <v>55.10736</v>
       </c>
     </row>
     <row r="391">
@@ -8183,7 +8183,7 @@
         <v>25.44</v>
       </c>
       <c r="F391" t="n">
-        <v>0.05535743999999999</v>
+        <v>55.35743999999999</v>
       </c>
     </row>
     <row r="392">
@@ -8203,7 +8203,7 @@
         <v>23.16</v>
       </c>
       <c r="F392" t="n">
-        <v>0.05021088000000001</v>
+        <v>50.21088000000001</v>
       </c>
     </row>
     <row r="393">
@@ -8223,7 +8223,7 @@
         <v>22.425</v>
       </c>
       <c r="F393" t="n">
-        <v>0.04807920000000001</v>
+        <v>48.07920000000001</v>
       </c>
     </row>
     <row r="394">
@@ -8243,7 +8243,7 @@
         <v>25.005</v>
       </c>
       <c r="F394" t="n">
-        <v>0.05331066</v>
+        <v>53.31066000000001</v>
       </c>
     </row>
     <row r="395">
@@ -8263,7 +8263,7 @@
         <v>24.105</v>
       </c>
       <c r="F395" t="n">
-        <v>0.05245248</v>
+        <v>52.45248</v>
       </c>
     </row>
     <row r="396">
@@ -8283,7 +8283,7 @@
         <v>23.835</v>
       </c>
       <c r="F396" t="n">
-        <v>0.05186496</v>
+        <v>51.86496</v>
       </c>
     </row>
     <row r="397">
@@ -8303,7 +8303,7 @@
         <v>24.285</v>
       </c>
       <c r="F397" t="n">
-        <v>0.05313558</v>
+        <v>53.13558</v>
       </c>
     </row>
     <row r="398">
@@ -8323,7 +8323,7 @@
         <v>25.065</v>
       </c>
       <c r="F398" t="n">
-        <v>0.05454144</v>
+        <v>54.54143999999999</v>
       </c>
     </row>
     <row r="399">
@@ -8343,7 +8343,7 @@
         <v>25.17</v>
       </c>
       <c r="F399" t="n">
-        <v>0.05446788</v>
+        <v>54.46788</v>
       </c>
     </row>
     <row r="400">
@@ -8363,7 +8363,7 @@
         <v>25.245</v>
       </c>
       <c r="F400" t="n">
-        <v>0.05473115999999999</v>
+        <v>54.73115999999999</v>
       </c>
     </row>
     <row r="401">
@@ -8383,7 +8383,7 @@
         <v>25.14</v>
       </c>
       <c r="F401" t="n">
-        <v>0.05400072</v>
+        <v>54.00072</v>
       </c>
     </row>
     <row r="402">
@@ -8403,7 +8403,7 @@
         <v>26.01</v>
       </c>
       <c r="F402" t="n">
-        <v>0.05555735999999999</v>
+        <v>55.55736</v>
       </c>
     </row>
     <row r="403">
@@ -8423,7 +8423,7 @@
         <v>26.535</v>
       </c>
       <c r="F403" t="n">
-        <v>0.05763402000000001</v>
+        <v>57.63402000000001</v>
       </c>
     </row>
     <row r="404">
@@ -8443,7 +8443,7 @@
         <v>26.58</v>
       </c>
       <c r="F404" t="n">
-        <v>0.05730648</v>
+        <v>57.30648</v>
       </c>
     </row>
     <row r="405">
@@ -8463,7 +8463,7 @@
         <v>27.75</v>
       </c>
       <c r="F405" t="n">
-        <v>0.060051</v>
+        <v>60.051</v>
       </c>
     </row>
     <row r="406">
@@ -8483,7 +8483,7 @@
         <v>28.53</v>
       </c>
       <c r="F406" t="n">
-        <v>0.06196716</v>
+        <v>61.96716</v>
       </c>
     </row>
     <row r="407">
@@ -8503,7 +8503,7 @@
         <v>29.865</v>
       </c>
       <c r="F407" t="n">
-        <v>0.06450839999999999</v>
+        <v>64.50839999999999</v>
       </c>
     </row>
     <row r="408">
@@ -8523,7 +8523,7 @@
         <v>30.705</v>
       </c>
       <c r="F408" t="n">
-        <v>0.06681408</v>
+        <v>66.81408</v>
       </c>
     </row>
     <row r="409">
@@ -8543,7 +8543,7 @@
         <v>32.25</v>
       </c>
       <c r="F409" t="n">
-        <v>0.070176</v>
+        <v>70.176</v>
       </c>
     </row>
     <row r="410">
@@ -8563,7 +8563,7 @@
         <v>29.955</v>
       </c>
       <c r="F410" t="n">
-        <v>0.06494244</v>
+        <v>64.94244</v>
       </c>
     </row>
     <row r="411">
@@ -8583,7 +8583,7 @@
         <v>27.375</v>
       </c>
       <c r="F411" t="n">
-        <v>0.05880150000000001</v>
+        <v>58.8015</v>
       </c>
     </row>
     <row r="412">
@@ -8603,7 +8603,7 @@
         <v>23.475</v>
       </c>
       <c r="F412" t="n">
-        <v>0.0503304</v>
+        <v>50.3304</v>
       </c>
     </row>
     <row r="413">
@@ -8623,7 +8623,7 @@
         <v>24.78</v>
       </c>
       <c r="F413" t="n">
-        <v>0.05342568</v>
+        <v>53.42568</v>
       </c>
     </row>
     <row r="414">
@@ -8643,7 +8643,7 @@
         <v>31.56</v>
       </c>
       <c r="F414" t="n">
-        <v>0.06930576000000001</v>
+        <v>69.30576000000001</v>
       </c>
     </row>
     <row r="415">
@@ -8663,7 +8663,7 @@
         <v>38.385</v>
       </c>
       <c r="F415" t="n">
-        <v>0.08352576</v>
+        <v>83.52576000000001</v>
       </c>
     </row>
     <row r="416">
@@ -8683,7 +8683,7 @@
         <v>32.61</v>
       </c>
       <c r="F416" t="n">
-        <v>0.07082892000000002</v>
+        <v>70.82892000000001</v>
       </c>
     </row>
     <row r="417">
@@ -8703,7 +8703,7 @@
         <v>31.77</v>
       </c>
       <c r="F417" t="n">
-        <v>0.06938568000000001</v>
+        <v>69.38568000000001</v>
       </c>
     </row>
     <row r="418">
@@ -8723,7 +8723,7 @@
         <v>36.15</v>
       </c>
       <c r="F418" t="n">
-        <v>0.0783732</v>
+        <v>78.3732</v>
       </c>
     </row>
     <row r="419">
@@ -8743,7 +8743,7 @@
         <v>30.75</v>
       </c>
       <c r="F419" t="n">
-        <v>0.066789</v>
+        <v>66.789</v>
       </c>
     </row>
     <row r="420">
@@ -8763,7 +8763,7 @@
         <v>19.485</v>
       </c>
       <c r="F420" t="n">
-        <v>0.04146408</v>
+        <v>41.46408</v>
       </c>
     </row>
     <row r="421">
@@ -8783,7 +8783,7 @@
         <v>25.755</v>
       </c>
       <c r="F421" t="n">
-        <v>0.05542476</v>
+        <v>55.42476000000001</v>
       </c>
     </row>
     <row r="422">
@@ -8803,7 +8803,7 @@
         <v>37.56</v>
       </c>
       <c r="F422" t="n">
-        <v>0.08173055999999999</v>
+        <v>81.73056</v>
       </c>
     </row>
     <row r="423">
@@ -8823,7 +8823,7 @@
         <v>32.31</v>
       </c>
       <c r="F423" t="n">
-        <v>0.06991884000000001</v>
+        <v>69.91884</v>
       </c>
     </row>
     <row r="424">
@@ -8843,7 +8843,7 @@
         <v>35.97</v>
       </c>
       <c r="F424" t="n">
-        <v>0.07812684</v>
+        <v>78.12684</v>
       </c>
     </row>
     <row r="425">
@@ -8863,7 +8863,7 @@
         <v>31.68</v>
       </c>
       <c r="F425" t="n">
-        <v>0.06842880000000001</v>
+        <v>68.42880000000001</v>
       </c>
     </row>
     <row r="426">
@@ -8883,7 +8883,7 @@
         <v>15.42</v>
       </c>
       <c r="F426" t="n">
-        <v>0.0326904</v>
+        <v>32.6904</v>
       </c>
     </row>
     <row r="427">
@@ -8903,7 +8903,7 @@
         <v>13.83</v>
       </c>
       <c r="F427" t="n">
-        <v>0.02998344</v>
+        <v>29.98344</v>
       </c>
     </row>
     <row r="428">
@@ -8923,7 +8923,7 @@
         <v>15.015</v>
       </c>
       <c r="F428" t="n">
-        <v>0.03225222</v>
+        <v>32.25222</v>
       </c>
     </row>
     <row r="429">
@@ -8943,7 +8943,7 @@
         <v>15.99</v>
       </c>
       <c r="F429" t="n">
-        <v>0.03402672</v>
+        <v>34.02672</v>
       </c>
     </row>
     <row r="430">
@@ -8963,7 +8963,7 @@
         <v>33.24</v>
       </c>
       <c r="F430" t="n">
-        <v>0.07259616000000001</v>
+        <v>72.59616000000001</v>
       </c>
     </row>
     <row r="431">
@@ -8983,7 +8983,7 @@
         <v>12.135</v>
       </c>
       <c r="F431" t="n">
-        <v>0.02674554</v>
+        <v>26.74554</v>
       </c>
     </row>
     <row r="432">
@@ -9003,7 +9003,7 @@
         <v>12.75</v>
       </c>
       <c r="F432" t="n">
-        <v>0.02805</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="433">
@@ -9023,7 +9023,7 @@
         <v>12.345</v>
       </c>
       <c r="F433" t="n">
-        <v>0.02636892</v>
+        <v>26.36892</v>
       </c>
     </row>
     <row r="434">
@@ -9043,7 +9043,7 @@
         <v>10.635</v>
       </c>
       <c r="F434" t="n">
-        <v>0.02280144</v>
+        <v>22.80144</v>
       </c>
     </row>
     <row r="435">
@@ -9063,7 +9063,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="F435" t="n">
-        <v>0.0203364</v>
+        <v>20.3364</v>
       </c>
     </row>
     <row r="436">
@@ -9083,7 +9083,7 @@
         <v>9.494999999999999</v>
       </c>
       <c r="F436" t="n">
-        <v>0.02073708</v>
+        <v>20.73708</v>
       </c>
     </row>
     <row r="437">
@@ -9103,7 +9103,7 @@
         <v>9.584999999999999</v>
       </c>
       <c r="F437" t="n">
-        <v>0.02058858</v>
+        <v>20.58858</v>
       </c>
     </row>
     <row r="438">
@@ -9123,7 +9123,7 @@
         <v>9.645</v>
       </c>
       <c r="F438" t="n">
-        <v>0.02137332</v>
+        <v>21.37332</v>
       </c>
     </row>
     <row r="439">
@@ -9143,7 +9143,7 @@
         <v>9.615</v>
       </c>
       <c r="F439" t="n">
-        <v>0.02042226</v>
+        <v>20.42226</v>
       </c>
     </row>
     <row r="440">
@@ -9163,7 +9163,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="F440" t="n">
-        <v>0.0206064</v>
+        <v>20.6064</v>
       </c>
     </row>
     <row r="441">
@@ -9183,7 +9183,7 @@
         <v>9.494999999999999</v>
       </c>
       <c r="F441" t="n">
-        <v>0.0210789</v>
+        <v>21.0789</v>
       </c>
     </row>
     <row r="442">
@@ -9203,7 +9203,7 @@
         <v>9.525</v>
       </c>
       <c r="F442" t="n">
-        <v>0.0210693</v>
+        <v>21.0693</v>
       </c>
     </row>
     <row r="443">
@@ -9223,7 +9223,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="F443" t="n">
-        <v>0.020988</v>
+        <v>20.988</v>
       </c>
     </row>
     <row r="444">
@@ -9243,7 +9243,7 @@
         <v>9.645</v>
       </c>
       <c r="F444" t="n">
-        <v>0.02071746</v>
+        <v>20.71746</v>
       </c>
     </row>
     <row r="445">
@@ -9263,7 +9263,7 @@
         <v>9.645</v>
       </c>
       <c r="F445" t="n">
-        <v>0.02056314</v>
+        <v>20.56314</v>
       </c>
     </row>
     <row r="446">
@@ -9283,7 +9283,7 @@
         <v>9.69</v>
       </c>
       <c r="F446" t="n">
-        <v>0.02062032</v>
+        <v>20.62032</v>
       </c>
     </row>
     <row r="447">
@@ -9303,7 +9303,7 @@
         <v>9.674999999999999</v>
       </c>
       <c r="F447" t="n">
-        <v>0.020511</v>
+        <v>20.511</v>
       </c>
     </row>
     <row r="448">
@@ -9323,7 +9323,7 @@
         <v>9.705</v>
       </c>
       <c r="F448" t="n">
-        <v>0.02100162</v>
+        <v>21.00162</v>
       </c>
     </row>
     <row r="449">
@@ -9343,7 +9343,7 @@
         <v>9.9</v>
       </c>
       <c r="F449" t="n">
-        <v>0.0207108</v>
+        <v>20.7108</v>
       </c>
     </row>
     <row r="450">
@@ -9363,7 +9363,7 @@
         <v>10.155</v>
       </c>
       <c r="F450" t="n">
-        <v>0.02201604</v>
+        <v>22.01604</v>
       </c>
     </row>
     <row r="451">
@@ -9383,7 +9383,7 @@
         <v>9.645</v>
       </c>
       <c r="F451" t="n">
-        <v>0.02052456</v>
+        <v>20.52456</v>
       </c>
     </row>
     <row r="452">
@@ -9403,7 +9403,7 @@
         <v>9.555</v>
       </c>
       <c r="F452" t="n">
-        <v>0.02029482</v>
+        <v>20.29482</v>
       </c>
     </row>
     <row r="453">
@@ -9423,7 +9423,7 @@
         <v>14.415</v>
       </c>
       <c r="F453" t="n">
-        <v>0.03050214</v>
+        <v>30.50214</v>
       </c>
     </row>
     <row r="454">
@@ -9443,7 +9443,7 @@
         <v>14.505</v>
       </c>
       <c r="F454" t="n">
-        <v>0.03127278</v>
+        <v>31.27278</v>
       </c>
     </row>
     <row r="455">
@@ -9463,7 +9463,7 @@
         <v>14.91</v>
       </c>
       <c r="F455" t="n">
-        <v>0.03208632</v>
+        <v>32.08632</v>
       </c>
     </row>
     <row r="456">
@@ -9483,7 +9483,7 @@
         <v>17.175</v>
       </c>
       <c r="F456" t="n">
-        <v>0.03682320000000001</v>
+        <v>36.82320000000001</v>
       </c>
     </row>
     <row r="457">
@@ -9503,7 +9503,7 @@
         <v>15.315</v>
       </c>
       <c r="F457" t="n">
-        <v>0.03265158</v>
+        <v>32.65158</v>
       </c>
     </row>
     <row r="458">
@@ -9523,7 +9523,7 @@
         <v>18.72</v>
       </c>
       <c r="F458" t="n">
-        <v>0.04073472</v>
+        <v>40.73472</v>
       </c>
     </row>
     <row r="459">
@@ -9543,7 +9543,7 @@
         <v>19.905</v>
       </c>
       <c r="F459" t="n">
-        <v>0.04267632</v>
+        <v>42.67632</v>
       </c>
     </row>
     <row r="460">
@@ -9563,7 +9563,7 @@
         <v>23.325</v>
       </c>
       <c r="F460" t="n">
-        <v>0.0507552</v>
+        <v>50.7552</v>
       </c>
     </row>
     <row r="461">
@@ -9583,7 +9583,7 @@
         <v>24.975</v>
       </c>
       <c r="F461" t="n">
-        <v>0.053946</v>
+        <v>53.946</v>
       </c>
     </row>
     <row r="462">
@@ -9603,7 +9603,7 @@
         <v>30.09</v>
       </c>
       <c r="F462" t="n">
-        <v>0.06511476000000001</v>
+        <v>65.11476</v>
       </c>
     </row>
     <row r="463">
@@ -9623,7 +9623,7 @@
         <v>33</v>
       </c>
       <c r="F463" t="n">
-        <v>0.07180800000000001</v>
+        <v>71.80800000000001</v>
       </c>
     </row>
     <row r="464">
@@ -9643,7 +9643,7 @@
         <v>36</v>
       </c>
       <c r="F464" t="n">
-        <v>0.07819200000000001</v>
+        <v>78.19200000000001</v>
       </c>
     </row>
     <row r="465">
@@ -9663,7 +9663,7 @@
         <v>38.265</v>
       </c>
       <c r="F465" t="n">
-        <v>0.08326464000000001</v>
+        <v>83.26464000000001</v>
       </c>
     </row>
     <row r="466">
@@ -9683,7 +9683,7 @@
         <v>39.585</v>
       </c>
       <c r="F466" t="n">
-        <v>0.08613696</v>
+        <v>86.13696</v>
       </c>
     </row>
     <row r="467">
@@ -9703,7 +9703,7 @@
         <v>50.61</v>
       </c>
       <c r="F467" t="n">
-        <v>0.11073468</v>
+        <v>110.73468</v>
       </c>
     </row>
     <row r="468">
@@ -9723,7 +9723,7 @@
         <v>59.07</v>
       </c>
       <c r="F468" t="n">
-        <v>0.12948144</v>
+        <v>129.48144</v>
       </c>
     </row>
     <row r="469">
@@ -9743,7 +9743,7 @@
         <v>58.41</v>
       </c>
       <c r="F469" t="n">
-        <v>0.12756744</v>
+        <v>127.56744</v>
       </c>
     </row>
     <row r="470">
@@ -9763,7 +9763,7 @@
         <v>59.52</v>
       </c>
       <c r="F470" t="n">
-        <v>0.12951552</v>
+        <v>129.51552</v>
       </c>
     </row>
     <row r="471">
@@ -9783,7 +9783,7 @@
         <v>57.87</v>
       </c>
       <c r="F471" t="n">
-        <v>0.12661956</v>
+        <v>126.61956</v>
       </c>
     </row>
     <row r="472">
@@ -9803,7 +9803,7 @@
         <v>55.965</v>
       </c>
       <c r="F472" t="n">
-        <v>0.12222756</v>
+        <v>122.22756</v>
       </c>
     </row>
     <row r="473">
@@ -9823,7 +9823,7 @@
         <v>56.64</v>
       </c>
       <c r="F473" t="n">
-        <v>0.12370176</v>
+        <v>123.70176</v>
       </c>
     </row>
     <row r="474">
@@ -9843,7 +9843,7 @@
         <v>60.09</v>
       </c>
       <c r="F474" t="n">
-        <v>0.13147692</v>
+        <v>131.47692</v>
       </c>
     </row>
     <row r="475">
@@ -9863,7 +9863,7 @@
         <v>66.87</v>
       </c>
       <c r="F475" t="n">
-        <v>0.14684652</v>
+        <v>146.84652</v>
       </c>
     </row>
     <row r="476">
@@ -9883,7 +9883,7 @@
         <v>70.83</v>
       </c>
       <c r="F476" t="n">
-        <v>0.155826</v>
+        <v>155.826</v>
       </c>
     </row>
     <row r="477">
@@ -9903,7 +9903,7 @@
         <v>70.64999999999999</v>
       </c>
       <c r="F477" t="n">
-        <v>0.1559952</v>
+        <v>155.9952</v>
       </c>
     </row>
     <row r="478">
@@ -9923,7 +9923,7 @@
         <v>71.175</v>
       </c>
       <c r="F478" t="n">
-        <v>0.1571544</v>
+        <v>157.1544</v>
       </c>
     </row>
     <row r="479">
@@ -9943,7 +9943,7 @@
         <v>71.13</v>
       </c>
       <c r="F479" t="n">
-        <v>0.15733956</v>
+        <v>157.33956</v>
       </c>
     </row>
     <row r="480">
@@ -9963,7 +9963,7 @@
         <v>68.34</v>
       </c>
       <c r="F480" t="n">
-        <v>0.15007464</v>
+        <v>150.07464</v>
       </c>
     </row>
     <row r="481">
@@ -9983,7 +9983,7 @@
         <v>69.375</v>
       </c>
       <c r="F481" t="n">
-        <v>0.152625</v>
+        <v>152.625</v>
       </c>
     </row>
     <row r="482">
@@ -10003,7 +10003,7 @@
         <v>68.58</v>
       </c>
       <c r="F482" t="n">
-        <v>0.150876</v>
+        <v>150.876</v>
       </c>
     </row>
     <row r="483">
@@ -10023,7 +10023,7 @@
         <v>65.45999999999999</v>
       </c>
       <c r="F483" t="n">
-        <v>0.144012</v>
+        <v>144.012</v>
       </c>
     </row>
     <row r="484">
@@ -10043,7 +10043,7 @@
         <v>60.825</v>
       </c>
       <c r="F484" t="n">
-        <v>0.1328418</v>
+        <v>132.8418</v>
       </c>
     </row>
     <row r="485">
@@ -10063,7 +10063,7 @@
         <v>60.855</v>
       </c>
       <c r="F485" t="n">
-        <v>0.13485468</v>
+        <v>134.85468</v>
       </c>
     </row>
     <row r="486">
@@ -10083,7 +10083,7 @@
         <v>62.385</v>
       </c>
       <c r="F486" t="n">
-        <v>0.137247</v>
+        <v>137.247</v>
       </c>
     </row>
     <row r="487">
@@ -10103,7 +10103,7 @@
         <v>62.48999999999999</v>
       </c>
       <c r="F487" t="n">
-        <v>0.13647816</v>
+        <v>136.47816</v>
       </c>
     </row>
     <row r="488">
@@ -10123,7 +10123,7 @@
         <v>60.03</v>
       </c>
       <c r="F488" t="n">
-        <v>0.132066</v>
+        <v>132.066</v>
       </c>
     </row>
     <row r="489">
@@ -10143,7 +10143,7 @@
         <v>58.62</v>
       </c>
       <c r="F489" t="n">
-        <v>0.12802608</v>
+        <v>128.02608</v>
       </c>
     </row>
     <row r="490">
@@ -10163,7 +10163,7 @@
         <v>58.095</v>
       </c>
       <c r="F490" t="n">
-        <v>0.12687948</v>
+        <v>126.87948</v>
       </c>
     </row>
     <row r="491">
@@ -10183,7 +10183,7 @@
         <v>57.54</v>
       </c>
       <c r="F491" t="n">
-        <v>0.12589752</v>
+        <v>125.89752</v>
       </c>
     </row>
     <row r="492">
@@ -10203,7 +10203,7 @@
         <v>57.57</v>
       </c>
       <c r="F492" t="n">
-        <v>0.12642372</v>
+        <v>126.42372</v>
       </c>
     </row>
     <row r="493">
@@ -10223,7 +10223,7 @@
         <v>56.73</v>
       </c>
       <c r="F493" t="n">
-        <v>0.12412524</v>
+        <v>124.12524</v>
       </c>
     </row>
     <row r="494">
@@ -10243,7 +10243,7 @@
         <v>56.055</v>
       </c>
       <c r="F494" t="n">
-        <v>0.12264834</v>
+        <v>122.64834</v>
       </c>
     </row>
     <row r="495">
@@ -10263,7 +10263,7 @@
         <v>53.265</v>
       </c>
       <c r="F495" t="n">
-        <v>0.1161177</v>
+        <v>116.1177</v>
       </c>
     </row>
     <row r="496">
@@ -10283,7 +10283,7 @@
         <v>52.095</v>
       </c>
       <c r="F496" t="n">
-        <v>0.11377548</v>
+        <v>113.77548</v>
       </c>
     </row>
     <row r="497">
@@ -10303,7 +10303,7 @@
         <v>52.575</v>
       </c>
       <c r="F497" t="n">
-        <v>0.1152444</v>
+        <v>115.2444</v>
       </c>
     </row>
     <row r="498">
@@ -10323,7 +10323,7 @@
         <v>52.665</v>
       </c>
       <c r="F498" t="n">
-        <v>0.11544168</v>
+        <v>115.44168</v>
       </c>
     </row>
     <row r="499">
@@ -10343,7 +10343,7 @@
         <v>56.175</v>
       </c>
       <c r="F499" t="n">
-        <v>0.1226862</v>
+        <v>122.6862</v>
       </c>
     </row>
     <row r="500">
@@ -10363,7 +10363,7 @@
         <v>58.23</v>
       </c>
       <c r="F500" t="n">
-        <v>0.12740724</v>
+        <v>127.40724</v>
       </c>
     </row>
     <row r="501">
@@ -10383,7 +10383,7 @@
         <v>58.14</v>
       </c>
       <c r="F501" t="n">
-        <v>0.12721032</v>
+        <v>127.21032</v>
       </c>
     </row>
     <row r="502">
@@ -10403,7 +10403,7 @@
         <v>58.44</v>
       </c>
       <c r="F502" t="n">
-        <v>0.12810048</v>
+        <v>128.10048</v>
       </c>
     </row>
     <row r="503">
@@ -10423,7 +10423,7 @@
         <v>100.11</v>
       </c>
       <c r="F503" t="n">
-        <v>0.2222442</v>
+        <v>222.2442</v>
       </c>
     </row>
     <row r="504">
@@ -10443,7 +10443,7 @@
         <v>234.555</v>
       </c>
       <c r="F504" t="n">
-        <v>0.5469822599999998</v>
+        <v>546.9822599999999</v>
       </c>
     </row>
     <row r="505">
@@ -10463,7 +10463,7 @@
         <v>245.205</v>
       </c>
       <c r="F505" t="n">
-        <v>0.5786837999999999</v>
+        <v>578.6837999999999</v>
       </c>
     </row>
     <row r="506">
@@ -10483,7 +10483,7 @@
         <v>246.915</v>
       </c>
       <c r="F506" t="n">
-        <v>0.5837070599999999</v>
+        <v>583.70706</v>
       </c>
     </row>
     <row r="507">
@@ -10503,7 +10503,7 @@
         <v>246.51</v>
       </c>
       <c r="F507" t="n">
-        <v>0.57979152</v>
+        <v>579.79152</v>
       </c>
     </row>
     <row r="508">
@@ -10523,7 +10523,7 @@
         <v>246.69</v>
       </c>
       <c r="F508" t="n">
-        <v>0.5821884000000001</v>
+        <v>582.1884</v>
       </c>
     </row>
     <row r="509">
@@ -10543,7 +10543,7 @@
         <v>246.87</v>
       </c>
       <c r="F509" t="n">
-        <v>0.58458816</v>
+        <v>584.58816</v>
       </c>
     </row>
     <row r="510">
@@ -10563,7 +10563,7 @@
         <v>246.825</v>
       </c>
       <c r="F510" t="n">
-        <v>0.5844815999999999</v>
+        <v>584.4816</v>
       </c>
     </row>
     <row r="511">
@@ -10583,7 +10583,7 @@
         <v>246.615</v>
       </c>
       <c r="F511" t="n">
-        <v>0.5820114</v>
+        <v>582.0114</v>
       </c>
     </row>
     <row r="512">
@@ -10603,7 +10603,7 @@
         <v>246.96</v>
       </c>
       <c r="F512" t="n">
-        <v>0.5838134399999999</v>
+        <v>583.8134399999999</v>
       </c>
     </row>
     <row r="513">
@@ -10623,7 +10623,7 @@
         <v>247.605</v>
       </c>
       <c r="F513" t="n">
-        <v>0.58533822</v>
+        <v>585.33822</v>
       </c>
     </row>
     <row r="514">
@@ -10643,7 +10643,7 @@
         <v>247.695</v>
       </c>
       <c r="F514" t="n">
-        <v>0.5845602</v>
+        <v>584.5602</v>
       </c>
     </row>
     <row r="515">
@@ -10663,7 +10663,7 @@
         <v>246.825</v>
       </c>
       <c r="F515" t="n">
-        <v>0.582507</v>
+        <v>582.5069999999999</v>
       </c>
     </row>
     <row r="516">
@@ -10683,7 +10683,7 @@
         <v>245.82</v>
       </c>
       <c r="F516" t="n">
-        <v>0.5791519199999999</v>
+        <v>579.1519199999999</v>
       </c>
     </row>
     <row r="517">
@@ -10703,7 +10703,7 @@
         <v>246.27</v>
       </c>
       <c r="F517" t="n">
-        <v>0.5811972</v>
+        <v>581.1972</v>
       </c>
     </row>
     <row r="518">
@@ -10723,7 +10723,7 @@
         <v>243.39</v>
       </c>
       <c r="F518" t="n">
-        <v>0.57245328</v>
+        <v>572.4532799999999</v>
       </c>
     </row>
     <row r="519">
@@ -10743,7 +10743,7 @@
         <v>221.955</v>
       </c>
       <c r="F519" t="n">
-        <v>0.5122721399999999</v>
+        <v>512.2721399999999</v>
       </c>
     </row>
     <row r="520">
@@ -10763,7 +10763,7 @@
         <v>221.22</v>
       </c>
       <c r="F520" t="n">
-        <v>0.5105757599999999</v>
+        <v>510.5757599999999</v>
       </c>
     </row>
     <row r="521">
@@ -10783,7 +10783,7 @@
         <v>220.89</v>
       </c>
       <c r="F521" t="n">
-        <v>0.5098141199999999</v>
+        <v>509.8141199999999</v>
       </c>
     </row>
     <row r="522">
@@ -10803,7 +10803,7 @@
         <v>216.705</v>
       </c>
       <c r="F522" t="n">
-        <v>0.49928832</v>
+        <v>499.28832</v>
       </c>
     </row>
     <row r="523">
@@ -10823,7 +10823,7 @@
         <v>214.635</v>
       </c>
       <c r="F523" t="n">
-        <v>0.49537758</v>
+        <v>495.37758</v>
       </c>
     </row>
     <row r="524">
@@ -10843,7 +10843,7 @@
         <v>211.56</v>
       </c>
       <c r="F524" t="n">
-        <v>0.48912672</v>
+        <v>489.12672</v>
       </c>
     </row>
     <row r="525">
@@ -10863,7 +10863,7 @@
         <v>211.275</v>
       </c>
       <c r="F525" t="n">
-        <v>0.4876227</v>
+        <v>487.6227</v>
       </c>
     </row>
     <row r="526">
@@ -10883,7 +10883,7 @@
         <v>209.16</v>
       </c>
       <c r="F526" t="n">
-        <v>0.4802313600000001</v>
+        <v>480.2313600000001</v>
       </c>
     </row>
     <row r="527">
@@ -10903,7 +10903,7 @@
         <v>208.32</v>
       </c>
       <c r="F527" t="n">
-        <v>0.479136</v>
+        <v>479.136</v>
       </c>
     </row>
     <row r="528">
@@ -10923,7 +10923,7 @@
         <v>206.505</v>
       </c>
       <c r="F528" t="n">
-        <v>0.4749615</v>
+        <v>474.9615</v>
       </c>
     </row>
     <row r="529">
@@ -10943,7 +10943,7 @@
         <v>205.995</v>
       </c>
       <c r="F529" t="n">
-        <v>0.4737885000000001</v>
+        <v>473.7885000000001</v>
       </c>
     </row>
     <row r="530">
@@ -10963,7 +10963,7 @@
         <v>205.665</v>
       </c>
       <c r="F530" t="n">
-        <v>0.4730295</v>
+        <v>473.0295</v>
       </c>
     </row>
     <row r="531">
@@ -10983,7 +10983,7 @@
         <v>205.245</v>
       </c>
       <c r="F531" t="n">
-        <v>0.4728844800000001</v>
+        <v>472.8844800000001</v>
       </c>
     </row>
     <row r="532">
@@ -11003,7 +11003,7 @@
         <v>204.87</v>
       </c>
       <c r="F532" t="n">
-        <v>0.4720204800000001</v>
+        <v>472.0204800000001</v>
       </c>
     </row>
     <row r="533">
@@ -11023,7 +11023,7 @@
         <v>204.87</v>
       </c>
       <c r="F533" t="n">
-        <v>0.4712010000000001</v>
+        <v>471.2010000000001</v>
       </c>
     </row>
     <row r="534">
@@ -11043,7 +11043,7 @@
         <v>204.615</v>
       </c>
       <c r="F534" t="n">
-        <v>0.47143296</v>
+        <v>471.43296</v>
       </c>
     </row>
     <row r="535">
@@ -11063,7 +11063,7 @@
         <v>203.91</v>
       </c>
       <c r="F535" t="n">
-        <v>0.46736172</v>
+        <v>467.36172</v>
       </c>
     </row>
     <row r="536">
@@ -11083,7 +11083,7 @@
         <v>203.37</v>
       </c>
       <c r="F536" t="n">
-        <v>0.4677510000000001</v>
+        <v>467.7510000000001</v>
       </c>
     </row>
     <row r="537">
@@ -11103,7 +11103,7 @@
         <v>203.025</v>
       </c>
       <c r="F537" t="n">
-        <v>0.4653333000000001</v>
+        <v>465.3333000000001</v>
       </c>
     </row>
     <row r="538">
@@ -11123,7 +11123,7 @@
         <v>202.665</v>
       </c>
       <c r="F538" t="n">
-        <v>0.46531884</v>
+        <v>465.31884</v>
       </c>
     </row>
     <row r="539">
@@ -11143,7 +11143,7 @@
         <v>201.255</v>
       </c>
       <c r="F539" t="n">
-        <v>0.4612764600000001</v>
+        <v>461.2764600000001</v>
       </c>
     </row>
     <row r="540">
@@ -11163,7 +11163,7 @@
         <v>200.895</v>
       </c>
       <c r="F540" t="n">
-        <v>0.46125492</v>
+        <v>461.25492</v>
       </c>
     </row>
     <row r="541">
@@ -11183,7 +11183,7 @@
         <v>200.64</v>
       </c>
       <c r="F541" t="n">
-        <v>0.45986688</v>
+        <v>459.86688</v>
       </c>
     </row>
     <row r="542">
@@ -11203,7 +11203,7 @@
         <v>200.355</v>
       </c>
       <c r="F542" t="n">
-        <v>0.45921366</v>
+        <v>459.21366</v>
       </c>
     </row>
     <row r="543">
@@ -11223,7 +11223,7 @@
         <v>199.245</v>
       </c>
       <c r="F543" t="n">
-        <v>0.45746652</v>
+        <v>457.46652</v>
       </c>
     </row>
     <row r="544">
@@ -11243,7 +11243,7 @@
         <v>198.945</v>
       </c>
       <c r="F544" t="n">
-        <v>0.4567777200000001</v>
+        <v>456.7777200000001</v>
       </c>
     </row>
     <row r="545">
@@ -11263,7 +11263,7 @@
         <v>198.72</v>
       </c>
       <c r="F545" t="n">
-        <v>0.4562611200000001</v>
+        <v>456.2611200000001</v>
       </c>
     </row>
     <row r="546">
@@ -11283,7 +11283,7 @@
         <v>198.285</v>
       </c>
       <c r="F546" t="n">
-        <v>0.4560555000000001</v>
+        <v>456.0555000000001</v>
       </c>
     </row>
     <row r="547">
@@ -11303,7 +11303,7 @@
         <v>197.19</v>
       </c>
       <c r="F547" t="n">
-        <v>0.45117072</v>
+        <v>451.17072</v>
       </c>
     </row>
     <row r="548">
@@ -11323,7 +11323,7 @@
         <v>196.545</v>
       </c>
       <c r="F548" t="n">
-        <v>0.45126732</v>
+        <v>451.26732</v>
       </c>
     </row>
     <row r="549">
@@ -11343,7 +11343,7 @@
         <v>195.72</v>
       </c>
       <c r="F549" t="n">
-        <v>0.44859024</v>
+        <v>448.59024</v>
       </c>
     </row>
     <row r="550">
@@ -11363,7 +11363,7 @@
         <v>195.255</v>
       </c>
       <c r="F550" t="n">
-        <v>0.44830548</v>
+        <v>448.30548</v>
       </c>
     </row>
     <row r="551">
@@ -11383,7 +11383,7 @@
         <v>194.865</v>
       </c>
       <c r="F551" t="n">
-        <v>0.44663058</v>
+        <v>446.63058</v>
       </c>
     </row>
     <row r="552">
@@ -11403,7 +11403,7 @@
         <v>194.52</v>
       </c>
       <c r="F552" t="n">
-        <v>0.44583984</v>
+        <v>445.83984</v>
       </c>
     </row>
     <row r="553">
@@ -11423,7 +11423,7 @@
         <v>194.37</v>
       </c>
       <c r="F553" t="n">
-        <v>0.4447185600000001</v>
+        <v>444.7185600000001</v>
       </c>
     </row>
     <row r="554">
@@ -11443,7 +11443,7 @@
         <v>193.53</v>
       </c>
       <c r="F554" t="n">
-        <v>0.4443448800000001</v>
+        <v>444.3448800000001</v>
       </c>
     </row>
     <row r="555">
@@ -11463,7 +11463,7 @@
         <v>191.82</v>
       </c>
       <c r="F555" t="n">
-        <v>0.43888416</v>
+        <v>438.88416</v>
       </c>
     </row>
     <row r="556">
@@ -11483,7 +11483,7 @@
         <v>192.285</v>
       </c>
       <c r="F556" t="n">
-        <v>0.4399480800000001</v>
+        <v>439.9480800000001</v>
       </c>
     </row>
     <row r="557">
@@ -11503,7 +11503,7 @@
         <v>192.225</v>
       </c>
       <c r="F557" t="n">
-        <v>0.4390419</v>
+        <v>439.0419</v>
       </c>
     </row>
     <row r="558">
@@ -11523,7 +11523,7 @@
         <v>191.565</v>
       </c>
       <c r="F558" t="n">
-        <v>0.43753446</v>
+        <v>437.53446</v>
       </c>
     </row>
     <row r="559">
@@ -11543,7 +11543,7 @@
         <v>191.37</v>
       </c>
       <c r="F559" t="n">
-        <v>0.4386200400000001</v>
+        <v>438.6200400000001</v>
       </c>
     </row>
     <row r="560">
@@ -11563,7 +11563,7 @@
         <v>190.92</v>
       </c>
       <c r="F560" t="n">
-        <v>0.43606128</v>
+        <v>436.06128</v>
       </c>
     </row>
     <row r="561">
@@ -11583,7 +11583,7 @@
         <v>186.42</v>
       </c>
       <c r="F561" t="n">
-        <v>0.4265289600000001</v>
+        <v>426.5289600000001</v>
       </c>
     </row>
     <row r="562">
@@ -11603,7 +11603,7 @@
         <v>175.59</v>
       </c>
       <c r="F562" t="n">
-        <v>0.4003452</v>
+        <v>400.3452</v>
       </c>
     </row>
     <row r="563">
@@ -11623,7 +11623,7 @@
         <v>188.31</v>
       </c>
       <c r="F563" t="n">
-        <v>0.43010004</v>
+        <v>430.10004</v>
       </c>
     </row>
     <row r="564">
@@ -11643,7 +11643,7 @@
         <v>188.595</v>
       </c>
       <c r="F564" t="n">
-        <v>0.43075098</v>
+        <v>430.75098</v>
       </c>
     </row>
     <row r="565">
@@ -11663,7 +11663,7 @@
         <v>188.07</v>
       </c>
       <c r="F565" t="n">
-        <v>0.4287996000000001</v>
+        <v>428.7996000000001</v>
       </c>
     </row>
     <row r="566">
@@ -11683,7 +11683,7 @@
         <v>187.32</v>
       </c>
       <c r="F566" t="n">
-        <v>0.42783888</v>
+        <v>427.83888</v>
       </c>
     </row>
     <row r="567">
@@ -11703,7 +11703,7 @@
         <v>187.545</v>
       </c>
       <c r="F567" t="n">
-        <v>0.4276026</v>
+        <v>427.6026</v>
       </c>
     </row>
     <row r="568">
@@ -11723,7 +11723,7 @@
         <v>186.405</v>
       </c>
       <c r="F568" t="n">
-        <v>0.42574902</v>
+        <v>425.74902</v>
       </c>
     </row>
     <row r="569">
@@ -11743,7 +11743,7 @@
         <v>146.865</v>
       </c>
       <c r="F569" t="n">
-        <v>0.33073998</v>
+        <v>330.73998</v>
       </c>
     </row>
     <row r="570">
@@ -11763,7 +11763,7 @@
         <v>182.175</v>
       </c>
       <c r="F570" t="n">
-        <v>0.415359</v>
+        <v>415.359</v>
       </c>
     </row>
     <row r="571">
@@ -11783,7 +11783,7 @@
         <v>73.545</v>
       </c>
       <c r="F571" t="n">
-        <v>0.16209318</v>
+        <v>162.09318</v>
       </c>
     </row>
     <row r="572">
@@ -11803,7 +11803,7 @@
         <v>68.235</v>
       </c>
       <c r="F572" t="n">
-        <v>0.150117</v>
+        <v>150.117</v>
       </c>
     </row>
     <row r="573">
@@ -11823,7 +11823,7 @@
         <v>70.86</v>
       </c>
       <c r="F573" t="n">
-        <v>0.15560856</v>
+        <v>155.60856</v>
       </c>
     </row>
     <row r="574">
@@ -11843,7 +11843,7 @@
         <v>71.55</v>
       </c>
       <c r="F574" t="n">
-        <v>0.1576962</v>
+        <v>157.6962</v>
       </c>
     </row>
     <row r="575">
@@ -11863,7 +11863,7 @@
         <v>72.14999999999999</v>
       </c>
       <c r="F575" t="n">
-        <v>0.1613274</v>
+        <v>161.3274</v>
       </c>
     </row>
     <row r="576">
@@ -11883,7 +11883,7 @@
         <v>69.89999999999999</v>
       </c>
       <c r="F576" t="n">
-        <v>0.1529412</v>
+        <v>152.9412</v>
       </c>
     </row>
     <row r="577">
@@ -11903,7 +11903,7 @@
         <v>70.24499999999999</v>
       </c>
       <c r="F577" t="n">
-        <v>0.15481998</v>
+        <v>154.81998</v>
       </c>
     </row>
     <row r="578">
@@ -11923,7 +11923,7 @@
         <v>70.095</v>
       </c>
       <c r="F578" t="n">
-        <v>0.15364824</v>
+        <v>153.64824</v>
       </c>
     </row>
     <row r="579">
@@ -11943,7 +11943,7 @@
         <v>70.72499999999999</v>
       </c>
       <c r="F579" t="n">
-        <v>0.1553121</v>
+        <v>155.3121</v>
       </c>
     </row>
   </sheetData>
